--- a/datamining/final_data/sorted1983_nltk.xlsx
+++ b/datamining/final_data/sorted1983_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HA2"/>
+  <dimension ref="A1:FY2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,1037 +442,897 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>and</t>
+          <t>students</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>talented</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>writing</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>gifted</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>of</t>
+          <t>curriculum</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>students</t>
+          <t>schooling</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>talented</t>
+          <t>review</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>writing</t>
+          <t>book</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>teacher</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>gifted</t>
+          <t>education</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>curriculum</t>
+          <t>intellectually</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>teacher</t>
+          <t>talent</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>programs</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>review</t>
+          <t>gifted-child</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>talent</t>
+          <t>use</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>intellectually</t>
+          <t>student</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>gifted-child</t>
+          <t>educational</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>survey</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>programs</t>
+          <t>identifying</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>student</t>
+          <t>mathematics</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>survey</t>
+          <t>program</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>college</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>educational</t>
+          <t>evaluating</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>what</t>
+          <t>gap</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>schooling</t>
+          <t>issues</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>mathematics</t>
+          <t>theory-practice</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>identifying</t>
+          <t>questioning</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>directions</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>between</t>
+          <t>highly</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>theory-practice</t>
+          <t>characteristics</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>directions</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>questioning</t>
+          <t>verbally</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>gap</t>
+          <t>reading</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>college</t>
+          <t>readers</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>highly</t>
+          <t>adolescent</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>self-instructional</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>with</t>
+          <t>primary-aged</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>evaluating</t>
+          <t>materials</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>issues</t>
+          <t>past</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>verbally</t>
+          <t>present</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>cj</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>characteristics</t>
+          <t>computers</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>reading</t>
+          <t>curriculum-development</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>readers</t>
+          <t>maker</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>cj</t>
+          <t>future</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>curriculum-development</t>
+          <t>pool</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>maker</t>
+          <t>developing</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
+          <t>teachers</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>skills</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>collaborative</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
           <t>improving</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>present</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>past</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>computers</t>
-        </is>
-      </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>future</t>
+          <t>constructing</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>skills</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>pool</t>
+          <t>high-school</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>collaborative</t>
+          <t>bridges</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>developing</t>
+          <t>primary</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>teachers</t>
+          <t>samples</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>as</t>
+          <t>attainments</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>adolescent</t>
+          <t>occupational</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>primary-aged</t>
+          <t>years</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>materials</t>
+          <t>effects</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>self-instructional</t>
+          <t>assessment</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>high-school</t>
+          <t>karnes</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>constructing</t>
+          <t>collins</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>bridges</t>
+          <t>soi</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
+          <t>identification</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>creativity</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>based</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>jungian</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>systems-approach</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>typology</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>tool</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>washout</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>windfall</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
           <t>outcomes</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>personality</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>educational-strategies</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>college-students</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>studies</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>productive</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>implications</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>professional</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>non-gifted</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>personality</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>college-students</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>educational-strategies</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>years</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>effects</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>primary</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>attainments</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>occupational</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>samples</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>by</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>attitudes</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>parent</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>young</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>implications</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>reasoning</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>developmental-study</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>conditional</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>childrens</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>toward</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>study</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>ability</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
-        <is>
-          <t>its</t>
-        </is>
-      </c>
-      <c r="CI1" s="1" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="CJ1" s="1" t="inlineStr">
-        <is>
-          <t>professional</t>
-        </is>
-      </c>
-      <c r="CK1" s="1" t="inlineStr">
-        <is>
-          <t>studies</t>
-        </is>
-      </c>
-      <c r="CL1" s="1" t="inlineStr">
-        <is>
-          <t>productive</t>
-        </is>
-      </c>
-      <c r="CM1" s="1" t="inlineStr">
-        <is>
-          <t>developmental-study</t>
-        </is>
-      </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>conditional</t>
-        </is>
-      </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>toward</t>
-        </is>
-      </c>
-      <c r="CP1" s="1" t="inlineStr">
-        <is>
-          <t>study</t>
-        </is>
-      </c>
-      <c r="CQ1" s="1" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
-      <c r="CR1" s="1" t="inlineStr">
-        <is>
-          <t>attitudes</t>
-        </is>
-      </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>childrens</t>
+          <t>successful</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>scientists</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
-          <t>karnes</t>
+          <t>concerning</t>
         </is>
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
+          <t>space</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>js</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>renzulli</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>perspective</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>ep</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>stoddard</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>midwest</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>finalists</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>search</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
           <t>profiles</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>precocity</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
-        <is>
-          <t>midwest</t>
-        </is>
-      </c>
-      <c r="CY1" s="1" t="inlineStr">
-        <is>
-          <t>finalists</t>
-        </is>
-      </c>
-      <c r="CZ1" s="1" t="inlineStr">
-        <is>
-          <t>1982</t>
-        </is>
-      </c>
-      <c r="DA1" s="1" t="inlineStr">
-        <is>
-          <t>successful</t>
-        </is>
-      </c>
-      <c r="DB1" s="1" t="inlineStr">
-        <is>
-          <t>typology</t>
-        </is>
-      </c>
-      <c r="DC1" s="1" t="inlineStr">
-        <is>
-          <t>systems-approach</t>
-        </is>
-      </c>
-      <c r="DD1" s="1" t="inlineStr">
-        <is>
-          <t>jungian</t>
-        </is>
-      </c>
-      <c r="DE1" s="1" t="inlineStr">
-        <is>
-          <t>assessment</t>
-        </is>
-      </c>
-      <c r="DF1" s="1" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
-      <c r="DG1" s="1" t="inlineStr">
-        <is>
-          <t>space</t>
-        </is>
-      </c>
       <c r="DH1" s="1" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>giftedness</t>
         </is>
       </c>
       <c r="DI1" s="1" t="inlineStr">
         <is>
-          <t>based</t>
+          <t>resources</t>
         </is>
       </c>
       <c r="DJ1" s="1" t="inlineStr">
         <is>
-          <t>creativity</t>
+          <t>searching</t>
         </is>
       </c>
       <c r="DK1" s="1" t="inlineStr">
         <is>
-          <t>scientists</t>
+          <t>types</t>
         </is>
       </c>
       <c r="DL1" s="1" t="inlineStr">
         <is>
-          <t>collins</t>
+          <t>usde</t>
         </is>
       </c>
       <c r="DM1" s="1" t="inlineStr">
         <is>
-          <t>concerning</t>
+          <t>relevant</t>
         </is>
       </c>
       <c r="DN1" s="1" t="inlineStr">
         <is>
-          <t>search</t>
+          <t>administrative</t>
         </is>
       </c>
       <c r="DO1" s="1" t="inlineStr">
         <is>
-          <t>renzulli</t>
+          <t>academic</t>
         </is>
       </c>
       <c r="DP1" s="1" t="inlineStr">
         <is>
-          <t>js</t>
+          <t>estimates</t>
         </is>
       </c>
       <c r="DQ1" s="1" t="inlineStr">
         <is>
-          <t>perspective</t>
+          <t>expenditure</t>
         </is>
       </c>
       <c r="DR1" s="1" t="inlineStr">
         <is>
-          <t>ep</t>
+          <t>instructional-time</t>
         </is>
       </c>
       <c r="DS1" s="1" t="inlineStr">
         <is>
-          <t>stoddard</t>
+          <t>strategies</t>
         </is>
       </c>
       <c r="DT1" s="1" t="inlineStr">
         <is>
-          <t>or</t>
+          <t>ratios</t>
         </is>
       </c>
       <c r="DU1" s="1" t="inlineStr">
         <is>
-          <t>windfall</t>
+          <t>preferred</t>
         </is>
       </c>
       <c r="DV1" s="1" t="inlineStr">
         <is>
-          <t>an</t>
+          <t>anxiety</t>
         </is>
       </c>
       <c r="DW1" s="1" t="inlineStr">
         <is>
-          <t>identification</t>
+          <t>academically</t>
         </is>
       </c>
       <c r="DX1" s="1" t="inlineStr">
         <is>
-          <t>soi</t>
+          <t>depression</t>
         </is>
       </c>
       <c r="DY1" s="1" t="inlineStr">
         <is>
-          <t>washout</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="DZ1" s="1" t="inlineStr">
         <is>
-          <t>tool</t>
+          <t>high-school-students</t>
         </is>
       </c>
       <c r="EA1" s="1" t="inlineStr">
         <is>
-          <t>depression</t>
+          <t>levels</t>
         </is>
       </c>
       <c r="EB1" s="1" t="inlineStr">
         <is>
-          <t>anxiety</t>
+          <t>stress</t>
         </is>
       </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
-          <t>effect</t>
+          <t>upon</t>
         </is>
       </c>
       <c r="ED1" s="1" t="inlineStr">
         <is>
-          <t>high-school-students</t>
+          <t>educating</t>
         </is>
       </c>
       <c r="EE1" s="1" t="inlineStr">
         <is>
-          <t>levels</t>
+          <t>teacher-pupil</t>
         </is>
       </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
-          <t>stress</t>
+          <t>summer</t>
         </is>
       </c>
       <c r="EG1" s="1" t="inlineStr">
         <is>
-          <t>upon</t>
+          <t>poorly</t>
         </is>
       </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>preferred</t>
+          <t>indian</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
+          <t>child</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>achieving</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>able</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>among</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>behaviors</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>university-based</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
           <t>perceptions</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
-        <is>
-          <t>behaviors</t>
-        </is>
-      </c>
-      <c r="EK1" s="1" t="inlineStr">
-        <is>
-          <t>among</t>
-        </is>
-      </c>
-      <c r="EL1" s="1" t="inlineStr">
-        <is>
-          <t>academically</t>
-        </is>
-      </c>
-      <c r="EM1" s="1" t="inlineStr">
-        <is>
-          <t>academic</t>
-        </is>
-      </c>
-      <c r="EN1" s="1" t="inlineStr">
-        <is>
-          <t>resources</t>
-        </is>
-      </c>
-      <c r="EO1" s="1" t="inlineStr">
-        <is>
-          <t>giftedness</t>
-        </is>
-      </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
-          <t>relevant</t>
+          <t>raven</t>
         </is>
       </c>
       <c r="EQ1" s="1" t="inlineStr">
         <is>
-          <t>our</t>
+          <t>wisc-r</t>
         </is>
       </c>
       <c r="ER1" s="1" t="inlineStr">
         <is>
-          <t>usde</t>
+          <t>standard</t>
         </is>
       </c>
       <c r="ES1" s="1" t="inlineStr">
         <is>
-          <t>types</t>
+          <t>soi-screening</t>
         </is>
       </c>
       <c r="ET1" s="1" t="inlineStr">
         <is>
-          <t>searching</t>
+          <t>progressive</t>
         </is>
       </c>
       <c r="EU1" s="1" t="inlineStr">
         <is>
-          <t>ratios</t>
+          <t>meeker</t>
         </is>
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
-          <t>strategies</t>
+          <t>matrices</t>
         </is>
       </c>
       <c r="EW1" s="1" t="inlineStr">
         <is>
-          <t>teacher-pupil</t>
+          <t>form</t>
         </is>
       </c>
       <c r="EX1" s="1" t="inlineStr">
         <is>
-          <t>educating</t>
+          <t>comparison</t>
         </is>
       </c>
       <c r="EY1" s="1" t="inlineStr">
         <is>
-          <t>administrative</t>
+          <t>social</t>
         </is>
       </c>
       <c r="EZ1" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>self-esteem</t>
         </is>
       </c>
       <c r="FA1" s="1" t="inlineStr">
         <is>
-          <t>instructional-time</t>
+          <t>relationship</t>
         </is>
       </c>
       <c r="FB1" s="1" t="inlineStr">
         <is>
-          <t>wisc-r</t>
+          <t>instrumentality</t>
         </is>
       </c>
       <c r="FC1" s="1" t="inlineStr">
         <is>
-          <t>standard</t>
+          <t>female</t>
         </is>
       </c>
       <c r="FD1" s="1" t="inlineStr">
         <is>
-          <t>soi-screening</t>
+          <t>expressiveness</t>
         </is>
       </c>
       <c r="FE1" s="1" t="inlineStr">
         <is>
-          <t>progressive</t>
+          <t>counseling</t>
         </is>
       </c>
       <c r="FF1" s="1" t="inlineStr">
         <is>
-          <t>meeker</t>
+          <t>traits</t>
         </is>
       </c>
       <c r="FG1" s="1" t="inlineStr">
         <is>
-          <t>matrices</t>
+          <t>70</t>
         </is>
       </c>
       <c r="FH1" s="1" t="inlineStr">
         <is>
-          <t>form</t>
+          <t>low</t>
         </is>
       </c>
       <c r="FI1" s="1" t="inlineStr">
         <is>
-          <t>comparison</t>
+          <t>abilities</t>
         </is>
       </c>
       <c r="FJ1" s="1" t="inlineStr">
         <is>
-          <t>raven</t>
+          <t>activities</t>
         </is>
       </c>
       <c r="FK1" s="1" t="inlineStr">
         <is>
-          <t>estimates</t>
+          <t>women</t>
         </is>
       </c>
       <c r="FL1" s="1" t="inlineStr">
         <is>
-          <t>expenditure</t>
+          <t>interests</t>
         </is>
       </c>
       <c r="FM1" s="1" t="inlineStr">
         <is>
-          <t>achieving</t>
+          <t>hobbies</t>
         </is>
       </c>
       <c r="FN1" s="1" t="inlineStr">
         <is>
-          <t>but</t>
+          <t>high</t>
         </is>
       </c>
       <c r="FO1" s="1" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>creative</t>
         </is>
       </c>
       <c r="FP1" s="1" t="inlineStr">
         <is>
-          <t>indian</t>
+          <t>childhood</t>
         </is>
       </c>
       <c r="FQ1" s="1" t="inlineStr">
         <is>
-          <t>poorly</t>
+          <t>visual-arts</t>
         </is>
       </c>
       <c r="FR1" s="1" t="inlineStr">
         <is>
-          <t>summer</t>
+          <t>age</t>
         </is>
       </c>
       <c r="FS1" s="1" t="inlineStr">
         <is>
-          <t>university-based</t>
+          <t>superior</t>
         </is>
       </c>
       <c r="FT1" s="1" t="inlineStr">
         <is>
-          <t>able</t>
+          <t>research</t>
         </is>
       </c>
       <c r="FU1" s="1" t="inlineStr">
         <is>
-          <t>traits</t>
+          <t>painter</t>
         </is>
       </c>
       <c r="FV1" s="1" t="inlineStr">
         <is>
-          <t>counseling</t>
+          <t>musicians</t>
         </is>
       </c>
       <c r="FW1" s="1" t="inlineStr">
         <is>
-          <t>expressiveness</t>
+          <t>gave</t>
         </is>
       </c>
       <c r="FX1" s="1" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>career</t>
         </is>
       </c>
       <c r="FY1" s="1" t="inlineStr">
         <is>
-          <t>instrumentality</t>
-        </is>
-      </c>
-      <c r="FZ1" s="1" t="inlineStr">
-        <is>
-          <t>relationship</t>
-        </is>
-      </c>
-      <c r="GA1" s="1" t="inlineStr">
-        <is>
-          <t>self-esteem</t>
-        </is>
-      </c>
-      <c r="GB1" s="1" t="inlineStr">
-        <is>
-          <t>social</t>
-        </is>
-      </c>
-      <c r="GC1" s="1" t="inlineStr">
-        <is>
-          <t>hobbies</t>
-        </is>
-      </c>
-      <c r="GD1" s="1" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="GE1" s="1" t="inlineStr">
-        <is>
-          <t>musicians</t>
-        </is>
-      </c>
-      <c r="GF1" s="1" t="inlineStr">
-        <is>
-          <t>activities</t>
-        </is>
-      </c>
-      <c r="GG1" s="1" t="inlineStr">
-        <is>
-          <t>childhood</t>
-        </is>
-      </c>
-      <c r="GH1" s="1" t="inlineStr">
-        <is>
-          <t>interests</t>
-        </is>
-      </c>
-      <c r="GI1" s="1" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="GJ1" s="1" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="GK1" s="1" t="inlineStr">
-        <is>
-          <t>during</t>
-        </is>
-      </c>
-      <c r="GL1" s="1" t="inlineStr">
-        <is>
-          <t>creative</t>
-        </is>
-      </c>
-      <c r="GM1" s="1" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="GN1" s="1" t="inlineStr">
-        <is>
-          <t>up</t>
-        </is>
-      </c>
-      <c r="GO1" s="1" t="inlineStr">
-        <is>
           <t>magnificent</t>
-        </is>
-      </c>
-      <c r="GP1" s="1" t="inlineStr">
-        <is>
-          <t>i</t>
-        </is>
-      </c>
-      <c r="GQ1" s="1" t="inlineStr">
-        <is>
-          <t>gave</t>
-        </is>
-      </c>
-      <c r="GR1" s="1" t="inlineStr">
-        <is>
-          <t>superior</t>
-        </is>
-      </c>
-      <c r="GS1" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="GT1" s="1" t="inlineStr">
-        <is>
-          <t>research</t>
-        </is>
-      </c>
-      <c r="GU1" s="1" t="inlineStr">
-        <is>
-          <t>painter</t>
-        </is>
-      </c>
-      <c r="GV1" s="1" t="inlineStr">
-        <is>
-          <t>career</t>
-        </is>
-      </c>
-      <c r="GW1" s="1" t="inlineStr">
-        <is>
-          <t>at</t>
-        </is>
-      </c>
-      <c r="GX1" s="1" t="inlineStr">
-        <is>
-          <t>age</t>
-        </is>
-      </c>
-      <c r="GY1" s="1" t="inlineStr">
-        <is>
-          <t>visual-arts</t>
-        </is>
-      </c>
-      <c r="GZ1" s="1" t="inlineStr">
-        <is>
-          <t>abilities</t>
-        </is>
-      </c>
-      <c r="HA1" s="1" t="inlineStr">
-        <is>
-          <t>about</t>
         </is>
       </c>
     </row>
@@ -1484,145 +1344,145 @@
         <v>1983</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1.53</v>
       </c>
       <c r="D2" t="n">
-        <v>1.84</v>
+        <v>1.27</v>
       </c>
       <c r="E2" t="n">
-        <v>1.76</v>
+        <v>1.24</v>
       </c>
       <c r="F2" t="n">
-        <v>1.72</v>
+        <v>1.1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.55</v>
+        <v>1.02</v>
       </c>
       <c r="H2" t="n">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.23</v>
+        <v>0.95</v>
       </c>
       <c r="J2" t="n">
-        <v>1.18</v>
+        <v>0.95</v>
       </c>
       <c r="K2" t="n">
-        <v>1.09</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>1.04</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8700000000000001</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8700000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.8400000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="T2" t="n">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="U2" t="n">
-        <v>0.78</v>
+        <v>0.73</v>
       </c>
       <c r="V2" t="n">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="W2" t="n">
-        <v>0.75</v>
+        <v>0.68</v>
       </c>
       <c r="X2" t="n">
-        <v>0.72</v>
+        <v>0.63</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7</v>
+        <v>0.61</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.68</v>
+        <v>0.61</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.61</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.59</v>
+        <v>0.55</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.5800000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.5800000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.57</v>
+        <v>0.51</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU2" t="n">
         <v>0.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="AX2" t="n">
         <v>0.49</v>
@@ -1637,13 +1497,13 @@
         <v>0.49</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="BE2" t="n">
         <v>0.48</v>
@@ -1661,121 +1521,121 @@
         <v>0.48</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="BL2" t="n">
         <v>0.47</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="BO2" t="n">
         <v>0.45</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="CS2" t="n">
         <v>0.4</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="CW2" t="n">
         <v>0.39</v>
@@ -1811,61 +1671,61 @@
         <v>0.39</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="EA2" t="n">
         <v>0.35</v>
@@ -1907,25 +1767,25 @@
         <v>0.35</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="EU2" t="n">
         <v>0.33</v>
@@ -1964,145 +1824,61 @@
         <v>0.33</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
